--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/42.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/42.xlsx
@@ -479,13 +479,13 @@
         <v>-19.61347192934272</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.18607581187148</v>
+        <v>-14.23718816216558</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.497209098859323</v>
+        <v>-0.5304504557744655</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.49170288829606</v>
+        <v>-10.63778680340404</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.84665366614277</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.3905644899564</v>
+        <v>-14.44481899293251</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4864865028319493</v>
+        <v>-0.5123961701557253</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.24369539556524</v>
+        <v>-10.39214901748758</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.07107283419924</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.70847178755919</v>
+        <v>-14.75724061564462</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.409935808116377</v>
+        <v>-0.4162332057832472</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.822568382358284</v>
+        <v>-9.967919128507127</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.36399393654273</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.16860077093166</v>
+        <v>-15.21558904583061</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.347996123372171</v>
+        <v>-0.3562704587681418</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.606388277835702</v>
+        <v>-9.752930423543143</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.71852214062243</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.61470789796063</v>
+        <v>-15.66702474011617</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3322853599620997</v>
+        <v>-0.3320104216024234</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.417466347829595</v>
+        <v>-9.558863218520237</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.15360258991597</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.09266859780352</v>
+        <v>-16.15078533011794</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3456656934663437</v>
+        <v>-0.3497897688614874</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.276108754047479</v>
+        <v>-9.410173935146753</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.65611789525603</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.59957637922947</v>
+        <v>-16.66366320163972</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1300223733602737</v>
+        <v>-0.1265398208043745</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.073714844417236</v>
+        <v>-9.208748855926798</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.21697293209938</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.22507423979578</v>
+        <v>-17.28333498744146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07285595147511349</v>
+        <v>0.04360774692669745</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.097634481709068</v>
+        <v>-9.214129792394749</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.83110144962255</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.64892445199382</v>
+        <v>-17.70256361673637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1949023985656839</v>
+        <v>0.186916093832231</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.78255512152009</v>
+        <v>-8.911527396813932</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.48229807848879</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.18082543954462</v>
+        <v>-18.24040850977732</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3207587057831966</v>
+        <v>0.3197767830700671</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.706593580432395</v>
+        <v>-8.826335782222822</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.15724180849522</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.70312976911244</v>
+        <v>-18.75998964035406</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4051124129924377</v>
+        <v>0.3876341886987333</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.205119104685762</v>
+        <v>-8.318616278020684</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.83244716587199</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.46601825569982</v>
+        <v>-19.52274720391302</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5428827157959211</v>
+        <v>0.5212280468957061</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.61771984538888</v>
+        <v>-7.729292450206069</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.50589494859947</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.29134393453939</v>
+        <v>-20.34392262275176</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7853652567275295</v>
+        <v>0.7556326369739697</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.044290073224119</v>
+        <v>-7.162657583216165</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.15749757723069</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.08784036252148</v>
+        <v>-21.1511023698527</v>
       </c>
       <c r="F15" t="n">
-        <v>0.867074318762742</v>
+        <v>0.845183988411376</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.500907136081121</v>
+        <v>-6.608565142348635</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.77299801048498</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.97524974143651</v>
+        <v>-22.05176115924356</v>
       </c>
       <c r="F16" t="n">
-        <v>1.113628565878127</v>
+        <v>1.097525033382804</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.000113460082257</v>
+        <v>-6.1309055654711</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.34694673354715</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.61397082787296</v>
+        <v>-22.68664620094738</v>
       </c>
       <c r="F17" t="n">
-        <v>1.291278023137508</v>
+        <v>1.270867123007257</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.87953335090996</v>
+        <v>-6.00483978140812</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.87843955376974</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.39579078436947</v>
+        <v>-23.47395183233458</v>
       </c>
       <c r="F18" t="n">
-        <v>1.61676576408566</v>
+        <v>1.595660971904798</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.48139642149307</v>
+        <v>-5.591240842335152</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.36755805070366</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.19638510314103</v>
+        <v>-24.26480547779189</v>
       </c>
       <c r="F19" t="n">
-        <v>1.868347455492268</v>
+        <v>1.840199004382557</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.226803500432865</v>
+        <v>-5.354309437808435</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.81549950639848</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.94806657849589</v>
+        <v>-25.02392338116085</v>
       </c>
       <c r="F20" t="n">
-        <v>2.092382941719884</v>
+        <v>2.057086093258591</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.993969986695609</v>
+        <v>-5.114641741987798</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.24247581148271</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.52747953305931</v>
+        <v>-25.60653085761766</v>
       </c>
       <c r="F21" t="n">
-        <v>2.446477364377208</v>
+        <v>2.420266574088072</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.73715137415231</v>
+        <v>-4.859996451716226</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.659721038999598</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.10437876547713</v>
+        <v>-26.18167572145468</v>
       </c>
       <c r="F22" t="n">
-        <v>2.733172612005325</v>
+        <v>2.701070285437413</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.4540041405943</v>
+        <v>-4.544301753293685</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.083924886796055</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.60333951907815</v>
+        <v>-26.68410593530876</v>
       </c>
       <c r="F23" t="n">
-        <v>2.929242939363015</v>
+        <v>2.898292735445175</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.299802997724451</v>
+        <v>-4.405536435474231</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.530349559768046</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.81934942366379</v>
+        <v>-26.89761521005163</v>
       </c>
       <c r="F24" t="n">
-        <v>3.05610735389934</v>
+        <v>3.010965093701069</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.121145433146257</v>
+        <v>-4.208156877832368</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.021431303254523</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.12247551135827</v>
+        <v>-27.21781366065172</v>
       </c>
       <c r="F25" t="n">
-        <v>3.363252778566234</v>
+        <v>3.31892224114415</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.865636050887131</v>
+        <v>-3.958237908886659</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.567244194019285</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.09011133873353</v>
+        <v>-27.18514836506162</v>
       </c>
       <c r="F26" t="n">
-        <v>3.445446255806591</v>
+        <v>3.387473538823427</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.827183957440981</v>
+        <v>-3.920833199667848</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.174544432976194</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.01841788837224</v>
+        <v>-27.1185609128086</v>
       </c>
       <c r="F27" t="n">
-        <v>3.454689421612849</v>
+        <v>3.397371319771772</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.765637041782027</v>
+        <v>-3.846809319400729</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.854839727046</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.93331791990102</v>
+        <v>-27.03501892837555</v>
       </c>
       <c r="F28" t="n">
-        <v>3.515332968375724</v>
+        <v>3.472913907168532</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.761355858752783</v>
+        <v>-3.846063058138751</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.608730038984985</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.78654011274243</v>
+        <v>-26.8966332873385</v>
       </c>
       <c r="F29" t="n">
-        <v>3.525440226169537</v>
+        <v>3.469876492909251</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.685773994447498</v>
+        <v>-3.767653256419653</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.43660988696968</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.66992697133117</v>
+        <v>-26.77600080895484</v>
       </c>
       <c r="F30" t="n">
-        <v>3.495825437141552</v>
+        <v>3.449373946659108</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.645096209518255</v>
+        <v>-3.72727659445577</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.331088095917116</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.26443216771723</v>
+        <v>-26.3718545125336</v>
       </c>
       <c r="F31" t="n">
-        <v>3.388887507530334</v>
+        <v>3.341702848088753</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.830011894854795</v>
+        <v>-3.909508357709755</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.294285525621925</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.93089266052142</v>
+        <v>-26.03624642148879</v>
       </c>
       <c r="F32" t="n">
-        <v>3.339608079634077</v>
+        <v>3.29396831192782</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.919589430897884</v>
+        <v>-4.008132675016477</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.315207573523463</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.51188660037482</v>
+        <v>-25.61399347023744</v>
       </c>
       <c r="F33" t="n">
-        <v>3.218792309010629</v>
+        <v>3.179986723387753</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.061994408907339</v>
+        <v>-4.154334420850033</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.387929294234741</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.05478193895879</v>
+        <v>-25.15086634951422</v>
       </c>
       <c r="F34" t="n">
-        <v>3.136415539530488</v>
+        <v>3.103789520848907</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.977666886303781</v>
+        <v>-4.072821743357446</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.507511482887177</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.69762391743651</v>
+        <v>-24.80326570906639</v>
       </c>
       <c r="F35" t="n">
-        <v>2.883053294937405</v>
+        <v>2.855611828181148</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.072690820329028</v>
+        <v>-4.181828256817657</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.666629531437673</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.00328672852841</v>
+        <v>-24.0934926951079</v>
       </c>
       <c r="F36" t="n">
-        <v>2.758833525575108</v>
+        <v>2.738226240902232</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.387050103861713</v>
+        <v>-4.505391429248076</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.858326527165194</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.5712276424486</v>
+        <v>-23.66784883742054</v>
       </c>
       <c r="F37" t="n">
-        <v>2.604763305733676</v>
+        <v>2.585098666865404</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.4612834609743</v>
+        <v>-4.593594273492783</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.076537809337145</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.19571421234222</v>
+        <v>-23.28548813292793</v>
       </c>
       <c r="F38" t="n">
-        <v>2.546633481116412</v>
+        <v>2.531551148242744</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.569373513235591</v>
+        <v>-4.703569617363283</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.320859111941309</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.71827720461299</v>
+        <v>-22.81649566053162</v>
       </c>
       <c r="F39" t="n">
-        <v>2.507120911140083</v>
+        <v>2.473002369934545</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.500298523442644</v>
+        <v>-4.641773947950336</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.580171468195057</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.358199599557</v>
+        <v>-22.45594673257333</v>
       </c>
       <c r="F40" t="n">
-        <v>2.494238085143825</v>
+        <v>2.46886520223656</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.551607258279368</v>
+        <v>-4.691289037297744</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.854400141068485</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.84219266765605</v>
+        <v>-21.92453016022767</v>
       </c>
       <c r="F41" t="n">
-        <v>2.576038793298929</v>
+        <v>2.541789329064974</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.482754837634731</v>
+        <v>-4.641001502082674</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.139903694924</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.22232449731169</v>
+        <v>-21.3204120302019</v>
       </c>
       <c r="F42" t="n">
-        <v>2.700415670295327</v>
+        <v>2.671953003917414</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.494537910192284</v>
+        <v>-4.656201665681918</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.434985218943421</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57026235427952</v>
+        <v>-20.66361047354103</v>
       </c>
       <c r="F43" t="n">
-        <v>2.811464582998847</v>
+        <v>2.781195178828777</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.490348373282932</v>
+        <v>-4.643816347193645</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.734556825393502</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.31542067946532</v>
+        <v>-20.40578375367892</v>
       </c>
       <c r="F44" t="n">
-        <v>2.760142755859281</v>
+        <v>2.736445687715757</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.572829881185807</v>
+        <v>-4.735135159514685</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.039801604351803</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.87542765786344</v>
+        <v>-19.9731878831826</v>
       </c>
       <c r="F45" t="n">
-        <v>2.839063157389206</v>
+        <v>2.814397258835394</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.555063626229584</v>
+        <v>-4.717015412381736</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.353564011464936</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.52378149583751</v>
+        <v>-19.6114737402714</v>
       </c>
       <c r="F46" t="n">
-        <v>2.879963511466758</v>
+        <v>2.865326316889708</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.653779589656199</v>
+        <v>-4.814828006912271</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.668333456307717</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.04004709044142</v>
+        <v>-19.13418074787343</v>
       </c>
       <c r="F47" t="n">
-        <v>2.911515961315318</v>
+        <v>2.883734094685175</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.963962428582373</v>
+        <v>-5.125403614923696</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.985955963828134</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.58337447501917</v>
+        <v>-18.68290216122197</v>
       </c>
       <c r="F48" t="n">
-        <v>2.876114374431291</v>
+        <v>2.858230288749493</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089962751131144</v>
+        <v>-5.252451321699806</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.30354754540443</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.11611018659797</v>
+        <v>-18.191299281818</v>
       </c>
       <c r="F49" t="n">
-        <v>2.90462941002057</v>
+        <v>2.874648036513017</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.34387487244358</v>
+        <v>-5.524417728630982</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.62292429250569</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.62781965981296</v>
+        <v>-17.71603559636051</v>
       </c>
       <c r="F50" t="n">
-        <v>2.959748004984237</v>
+        <v>2.927488570782224</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.428621348738073</v>
+        <v>-5.60844412826918</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.9347552183426</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.93861465361881</v>
+        <v>-17.02146274600126</v>
       </c>
       <c r="F51" t="n">
-        <v>2.938800320437475</v>
+        <v>2.901644364972656</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.645377514585689</v>
+        <v>-5.843791364152048</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.24034554777235</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.5621847623135</v>
+        <v>-16.64928785311951</v>
       </c>
       <c r="F52" t="n">
-        <v>2.817905995996977</v>
+        <v>2.783996931636906</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.794695228495575</v>
+        <v>-5.969123979255891</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.53875881341779</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.13980088803374</v>
+        <v>-16.2154089369447</v>
       </c>
       <c r="F53" t="n">
-        <v>2.885305171026182</v>
+        <v>2.850505830072875</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852510837844638</v>
+        <v>-6.029256926207939</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.8251256841758</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.86707512753774</v>
+        <v>-15.93405534887601</v>
       </c>
       <c r="F54" t="n">
-        <v>2.641709784353027</v>
+        <v>2.611309457154539</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.084886120982433</v>
+        <v>-6.281951463356094</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.09680345498029</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.53129683655599</v>
+        <v>-15.58113923347444</v>
       </c>
       <c r="F55" t="n">
-        <v>2.480674459399796</v>
+        <v>2.46302603516915</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.296392273390518</v>
+        <v>-6.48641395683533</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.35238963581116</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.12737310928306</v>
+        <v>-15.18308085787461</v>
       </c>
       <c r="F56" t="n">
-        <v>2.425765341281597</v>
+        <v>2.388373724365628</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.497228198982596</v>
+        <v>-6.673437502929387</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.59605464032039</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.58700140179366</v>
+        <v>-14.64201525833459</v>
       </c>
       <c r="F57" t="n">
-        <v>2.384603141147211</v>
+        <v>2.341372357163831</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.763905315565714</v>
+        <v>-6.940887065380167</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.81765764497352</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.33865350918896</v>
+        <v>-14.39620727248118</v>
       </c>
       <c r="F58" t="n">
-        <v>2.207045330007722</v>
+        <v>2.164338238138011</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721368423632947</v>
+        <v>-6.906087724426859</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.02108603768055</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.9639648941616</v>
+        <v>-14.01531290590685</v>
       </c>
       <c r="F59" t="n">
-        <v>2.260121525728079</v>
+        <v>2.217597726098153</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.857462911672688</v>
+        <v>-7.047916641111278</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.20320149290592</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.85317782751491</v>
+        <v>-13.90690863837736</v>
       </c>
       <c r="F60" t="n">
-        <v>2.079473931117943</v>
+        <v>2.036819208459599</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821459078857942</v>
+        <v>-7.002761288610165</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.36622083111856</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.52427299552507</v>
+        <v>-13.58667091086874</v>
       </c>
       <c r="F61" t="n">
-        <v>1.958055914563775</v>
+        <v>1.921999712537662</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.153951201826417</v>
+        <v>-7.321192278326626</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.50408097273277</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.22608270600192</v>
+        <v>-13.2834662693572</v>
       </c>
       <c r="F62" t="n">
-        <v>1.880078158838455</v>
+        <v>1.84158678848378</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192377110666883</v>
+        <v>-7.400426895124752</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.61682968729567</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.89897151950139</v>
+        <v>-12.95105270020578</v>
       </c>
       <c r="F63" t="n">
-        <v>1.811526861159177</v>
+        <v>1.772773644747668</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.315353111259216</v>
+        <v>-7.504445241202266</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.70766952806066</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.65703885528914</v>
+        <v>-12.71023288173507</v>
       </c>
       <c r="F64" t="n">
-        <v>1.696602626814506</v>
+        <v>1.659525225166737</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.494272521894245</v>
+        <v>-7.690735618337186</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.77034184774108</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.44579454893788</v>
+        <v>-12.50728909538547</v>
       </c>
       <c r="F65" t="n">
-        <v>1.614906657082135</v>
+        <v>1.588748236004366</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730745695821501</v>
+        <v>-7.923137086080666</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.80556015022004</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.21036875923797</v>
+        <v>-12.27185021338271</v>
       </c>
       <c r="F66" t="n">
-        <v>1.546014959528972</v>
+        <v>1.517238077882858</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.849414328778906</v>
+        <v>-8.035089367680264</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.80780063914348</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.03003537989603</v>
+        <v>-12.0909276804129</v>
       </c>
       <c r="F67" t="n">
-        <v>1.603254507552999</v>
+        <v>1.555153386912497</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.817639309782037</v>
+        <v>-7.993272552403792</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.78279801401303</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.94086370524104</v>
+        <v>-11.99718679206614</v>
       </c>
       <c r="F68" t="n">
-        <v>1.460234191309983</v>
+        <v>1.419648052500632</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.82706576782808</v>
+        <v>-8.00599827076595</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.72216221660406</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.79230534489597</v>
+        <v>-11.85534478307888</v>
       </c>
       <c r="F69" t="n">
-        <v>1.353950876840851</v>
+        <v>1.297025544085026</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.899662587085451</v>
+        <v>-8.069823247119364</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.62626171896038</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.69436182733702</v>
+        <v>-11.74903528400407</v>
       </c>
       <c r="F70" t="n">
-        <v>1.399485906124374</v>
+        <v>1.361099274192433</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.840249716789698</v>
+        <v>-8.016864882124583</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.49495161532889</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.42556375769354</v>
+        <v>-11.4867048119644</v>
       </c>
       <c r="F71" t="n">
-        <v>1.338606697910348</v>
+        <v>1.295271175504235</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.691206941239488</v>
+        <v>-7.869694305880739</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.33017773441451</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.36908356323433</v>
+        <v>-11.43381190848383</v>
       </c>
       <c r="F72" t="n">
-        <v>1.389012063850993</v>
+        <v>1.341591742958262</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.696090370199452</v>
+        <v>-7.865465492062862</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.13101688126574</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.33266077672865</v>
+        <v>-11.41833680652491</v>
       </c>
       <c r="F73" t="n">
-        <v>1.362382319870923</v>
+        <v>1.306700755885062</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.57471163055381</v>
+        <v>-7.753212087497903</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.89739132147334</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.52841688881814</v>
+        <v>-11.60704925968555</v>
       </c>
       <c r="F74" t="n">
-        <v>1.408676702719266</v>
+        <v>1.352301246682794</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.462720072045685</v>
+        <v>-7.638039099399238</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.64051440193418</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.65716659496367</v>
+        <v>-11.73139995207626</v>
       </c>
       <c r="F75" t="n">
-        <v>1.340544358730924</v>
+        <v>1.290400838847113</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.334454781105294</v>
+        <v>-7.49583050593241</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.36007059162598</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.99197605553513</v>
+        <v>-12.06643198179603</v>
       </c>
       <c r="F76" t="n">
-        <v>1.364817488199484</v>
+        <v>1.317423351912435</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.133618855513217</v>
+        <v>-7.308152344696267</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.06517667229394</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.60326876751817</v>
+        <v>-12.67521097163345</v>
       </c>
       <c r="F77" t="n">
-        <v>1.339392236080852</v>
+        <v>1.291958822885278</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.966338502104483</v>
+        <v>-7.125239781694512</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.75877422528926</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.13164792560455</v>
+        <v>-13.20304025300048</v>
       </c>
       <c r="F78" t="n">
-        <v>1.368142933121282</v>
+        <v>1.313024338157615</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.834708489333769</v>
+        <v>-6.989904647219589</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.4561962734723</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.6269166498042</v>
+        <v>-13.7000240688724</v>
       </c>
       <c r="F79" t="n">
-        <v>1.427320141965884</v>
+        <v>1.362827458167541</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662191214788344</v>
+        <v>-6.804164146804021</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.16045050308127</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.18476658158731</v>
+        <v>-14.24868320406062</v>
       </c>
       <c r="F80" t="n">
-        <v>1.410850024990993</v>
+        <v>1.382780127698332</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.392476683945945</v>
+        <v>-6.548104887825543</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.87755325843576</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.96869439884134</v>
+        <v>-15.02623506983073</v>
       </c>
       <c r="F81" t="n">
-        <v>1.474557170618832</v>
+        <v>1.42425654310092</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.278914049096814</v>
+        <v>-6.432224915373426</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.61782476449488</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.72202550435426</v>
+        <v>-15.77947452922375</v>
       </c>
       <c r="F82" t="n">
-        <v>1.505743035987823</v>
+        <v>1.461307760143005</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.193316573117609</v>
+        <v>-6.341901118068358</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.38493491493634</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.59101401317098</v>
+        <v>-16.64390691665156</v>
       </c>
       <c r="F83" t="n">
-        <v>1.462800282666961</v>
+        <v>1.410640548145525</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.932164408333699</v>
+        <v>-6.080971522432757</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.18206877864001</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.66111338593947</v>
+        <v>-17.71377062796889</v>
       </c>
       <c r="F84" t="n">
-        <v>1.544574806216383</v>
+        <v>1.507471219962931</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.746777400094857</v>
+        <v>-5.892507823026111</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.00580828096725</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.47270523909807</v>
+        <v>-18.52606946548094</v>
       </c>
       <c r="F85" t="n">
-        <v>1.537321670442066</v>
+        <v>1.49403851724732</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.541712660684902</v>
+        <v>-5.68216688557094</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.862295520795954</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.56232523540356</v>
+        <v>-19.60550365017557</v>
       </c>
       <c r="F86" t="n">
-        <v>1.532686995236095</v>
+        <v>1.496630793209982</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.243155786682181</v>
+        <v>-5.390247809108973</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.742507750343124</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.62191148899013</v>
+        <v>-20.67411050042009</v>
       </c>
       <c r="F87" t="n">
-        <v>1.548711973914368</v>
+        <v>1.525067274982211</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.968007950160466</v>
+        <v>-5.113541988549093</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.641034708546021</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.98352407683248</v>
+        <v>-22.02992319810356</v>
       </c>
       <c r="F88" t="n">
-        <v>1.602311861748394</v>
+        <v>1.573875379976166</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659985341203177</v>
+        <v>-4.819004451518782</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.549766082316079</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.44730899605167</v>
+        <v>-23.50046374558908</v>
       </c>
       <c r="F89" t="n">
-        <v>1.398281414262935</v>
+        <v>1.36699081047121</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.318773744542112</v>
+        <v>-4.471796580156206</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.462982087216568</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.93528849092236</v>
+        <v>-24.99690086809552</v>
       </c>
       <c r="F90" t="n">
-        <v>1.2472224240751</v>
+        <v>1.220474849369454</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.12829383049784</v>
+        <v>-4.276105929580926</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.369032554560825</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.58891180134657</v>
+        <v>-26.62605466450855</v>
       </c>
       <c r="F91" t="n">
-        <v>1.080740701139711</v>
+        <v>1.050340373941223</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.087092353454928</v>
+        <v>-4.239840250709346</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.256412409782074</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.28608011102236</v>
+        <v>-28.33327786276678</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9946719022582042</v>
+        <v>0.9685003888775938</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.840315537191233</v>
+        <v>-3.992330265486514</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.122046633793202</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.17774767171484</v>
+        <v>-30.23459445065361</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8710674711294685</v>
+        <v>0.8547544617886778</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.880312522372706</v>
+        <v>-4.039868417104821</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.955813496168583</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.31680738690457</v>
+        <v>-32.37786988735838</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7790154898492925</v>
+        <v>0.7758209679559113</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.916211616764719</v>
+        <v>-4.071826728341475</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.755130485480596</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.40652221268383</v>
+        <v>-34.47218011143509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3681790266759284</v>
+        <v>0.360166537336792</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.919379954052416</v>
+        <v>-4.080650940456798</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.511908454815407</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.42316889630342</v>
+        <v>-36.49865911448882</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0898366682608322</v>
+        <v>0.08877619173065239</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.097317441974315</v>
+        <v>-4.254320337652294</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.235274329737509</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.55563009086092</v>
+        <v>-38.63744389131887</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2393169174830029</v>
+        <v>-0.2366984569146577</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.180335734293701</v>
+        <v>-4.348506364295672</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.918792064906019</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.8960494237564</v>
+        <v>-40.98825851267068</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5004428976612293</v>
+        <v>-0.5016735741283516</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.386670427079303</v>
+        <v>-4.560784962571418</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.573812537531537</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31846584934961</v>
+        <v>-43.41157830715996</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4172413131020601</v>
+        <v>-0.4129732223756574</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.706567754714038</v>
+        <v>-4.875118061498419</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.195088638439717</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79957506858227</v>
+        <v>-45.8924256803358</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5665721193147877</v>
+        <v>-0.5474311725601841</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.948801541891654</v>
+        <v>-5.111604327728517</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.810631662721314</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20244468603278</v>
+        <v>-48.30409332529594</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5895491108020169</v>
+        <v>-0.5854774046182402</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.303288733634229</v>
+        <v>-5.475295408368826</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.391990443360522</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49131962264039</v>
+        <v>-50.59240529288135</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7144234953064001</v>
+        <v>-0.706162252213271</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.623775214896841</v>
+        <v>-5.786080493225719</v>
       </c>
     </row>
   </sheetData>
